--- a/biology/Botanique/Viola_flettii/Viola_flettii.xlsx
+++ b/biology/Botanique/Viola_flettii/Viola_flettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Violette de Flett
 Viola flettii, en français la violette de Flett, est une espèce de plantes vivaces de la famille des Violaceae présente dans l'État de Washington au nord-ouest des États-Unis.
@@ -512,10 +524,48 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Viola flettii est présent dans l'État de Washington[2]. La plante est ainsi présente au sein du parc national Olympique[3]. Son nom anglophone est d'ailleurs Olympic violet en référence au mont Olympe, le point culminant du parc national, des montagnes Olympiques et de la péninsule Olympique.
-Référence
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Viola flettii est présent dans l'État de Washington. La plante est ainsi présente au sein du parc national Olympique. Son nom anglophone est d'ailleurs Olympic violet en référence au mont Olympe, le point culminant du parc national, des montagnes Olympiques et de la péninsule Olympique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Viola_flettii</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Viola_flettii</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Référence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 ↑ IPNI. International Plant Names Index. Published on the Internet http://www.ipni.org, The Royal Botanic Gardens, Kew, Harvard University Herbaria &amp; Libraries and Australian National Botanic Gardens., consulté le 13 juillet 2020
 ↑ (en) « Habitat de la plante », USDA (consulté le 6 mars 2010).
 ↑ (en) « Plantes de la zone alpine », National Park Service, 2009 (consulté le 6 mars 2010).
